--- a/stats_loc_qtr.xlsx
+++ b/stats_loc_qtr.xlsx
@@ -46367,7 +46367,7 @@
         <v>49</v>
       </c>
       <c r="D1300" s="1" t="n">
-        <v>43873</v>
+        <v>43871</v>
       </c>
       <c r="E1300" s="1" t="n">
         <v>43921</v>
